--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="159">
   <si>
     <t>小区</t>
   </si>
@@ -25,6 +25,9 @@
     <t>挂牌时间</t>
   </si>
   <si>
+    <t>上次交易</t>
+  </si>
+  <si>
     <t>挂牌价</t>
   </si>
   <si>
@@ -64,6 +67,30 @@
     <t>交易权属</t>
   </si>
   <si>
+    <t>电梯</t>
+  </si>
+  <si>
+    <t>梯户比例</t>
+  </si>
+  <si>
+    <t>小区户数</t>
+  </si>
+  <si>
+    <t>停车位数</t>
+  </si>
+  <si>
+    <t>车位配比</t>
+  </si>
+  <si>
+    <t>停车费</t>
+  </si>
+  <si>
+    <t>人车分流</t>
+  </si>
+  <si>
+    <t>物业费用</t>
+  </si>
+  <si>
     <t>容积率</t>
   </si>
   <si>
@@ -73,24 +100,27 @@
     <t>楼栋数量</t>
   </si>
   <si>
-    <t>小区户数</t>
-  </si>
-  <si>
-    <t>停车位数</t>
-  </si>
-  <si>
-    <t>停车费</t>
-  </si>
-  <si>
-    <t>物业费用</t>
-  </si>
-  <si>
     <t>物业公司</t>
   </si>
   <si>
     <t>开发商</t>
   </si>
   <si>
+    <t>交通配套</t>
+  </si>
+  <si>
+    <t>教育配套</t>
+  </si>
+  <si>
+    <t>医疗配套</t>
+  </si>
+  <si>
+    <t>生活配套</t>
+  </si>
+  <si>
+    <t>休闲配套</t>
+  </si>
+  <si>
     <t>东方帕提欧</t>
   </si>
   <si>
@@ -100,6 +130,9 @@
     <t>2024.08.22</t>
   </si>
   <si>
+    <t>2015.07.01</t>
+  </si>
+  <si>
     <t>349万</t>
   </si>
   <si>
@@ -118,6 +151,9 @@
     <t>南</t>
   </si>
   <si>
+    <t>5/18</t>
+  </si>
+  <si>
     <t>有</t>
   </si>
   <si>
@@ -127,27 +163,30 @@
     <t>商品房</t>
   </si>
   <si>
+    <t>两梯四户</t>
+  </si>
+  <si>
+    <t>固定车位700</t>
+  </si>
+  <si>
+    <t>1:1.2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.9元/平/月</t>
+  </si>
+  <si>
     <t>140栋</t>
   </si>
   <si>
-    <t>1171户</t>
-  </si>
-  <si>
-    <t>300个</t>
-  </si>
-  <si>
-    <t>1.9元/平/月</t>
-  </si>
-  <si>
     <t>上海绿城物业有限公司</t>
   </si>
   <si>
     <t>上海明豪置业发展有限公司</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2024.10.07</t>
   </si>
   <si>
@@ -193,18 +232,12 @@
     <t>第一排无遮挡，女儿成绩好</t>
   </si>
   <si>
+    <t>2.4元/平/月</t>
+  </si>
+  <si>
     <t>41栋</t>
   </si>
   <si>
-    <t>925户</t>
-  </si>
-  <si>
-    <t>97个</t>
-  </si>
-  <si>
-    <t>2.4元/平/月</t>
-  </si>
-  <si>
     <t>永升物业</t>
   </si>
   <si>
@@ -277,19 +310,187 @@
     <t>阳台墙很厚不能砸，东面边户</t>
   </si>
   <si>
+    <t>0.9元/平/月</t>
+  </si>
+  <si>
     <t>66栋</t>
   </si>
   <si>
-    <t>744户</t>
-  </si>
-  <si>
-    <t>0.9元/平/月</t>
-  </si>
-  <si>
     <t>上海长发物业管理有限公司</t>
   </si>
   <si>
     <t>上海世纪长江产业发展有限公司</t>
+  </si>
+  <si>
+    <t>新天地荻泾花园</t>
+  </si>
+  <si>
+    <t>满五</t>
+  </si>
+  <si>
+    <t>2024.06.14</t>
+  </si>
+  <si>
+    <t>360万</t>
+  </si>
+  <si>
+    <t>4.0328万/平</t>
+  </si>
+  <si>
+    <t>89.27㎡</t>
+  </si>
+  <si>
+    <t>中/11</t>
+  </si>
+  <si>
+    <t>楼道味道难闻，小猫吓的躲沙发底下</t>
+  </si>
+  <si>
+    <t>商品房/动迁安置房</t>
+  </si>
+  <si>
+    <t>一梯两户</t>
+  </si>
+  <si>
+    <t>1:0.6</t>
+  </si>
+  <si>
+    <t>1.8元/平/月</t>
+  </si>
+  <si>
+    <t>125栋</t>
+  </si>
+  <si>
+    <t>郎诗物业</t>
+  </si>
+  <si>
+    <t>中铁青秀城西区</t>
+  </si>
+  <si>
+    <t>2023.12.01</t>
+  </si>
+  <si>
+    <t>325万</t>
+  </si>
+  <si>
+    <t>3.7624万/平</t>
+  </si>
+  <si>
+    <t>86.38㎡</t>
+  </si>
+  <si>
+    <t>中/16</t>
+  </si>
+  <si>
+    <t>2.85元/平/月</t>
+  </si>
+  <si>
+    <t>44栋</t>
+  </si>
+  <si>
+    <t>中铁建（北京）物业管理有限公司上海分公司</t>
+  </si>
+  <si>
+    <t>文宝苑</t>
+  </si>
+  <si>
+    <t>2024.08.25</t>
+  </si>
+  <si>
+    <t>336万</t>
+  </si>
+  <si>
+    <t>4.4286万/平</t>
+  </si>
+  <si>
+    <t>85.87㎡</t>
+  </si>
+  <si>
+    <t>1/11</t>
+  </si>
+  <si>
+    <t>1.28元/平/月</t>
+  </si>
+  <si>
+    <t>68栋</t>
+  </si>
+  <si>
+    <t>上海捷森物业服务发展有限公司</t>
+  </si>
+  <si>
+    <t>上海捷茂房地产开发有限公司</t>
+  </si>
+  <si>
+    <t>保利叶上海（一期）</t>
+  </si>
+  <si>
+    <t>2024.08.29</t>
+  </si>
+  <si>
+    <t>319万</t>
+  </si>
+  <si>
+    <t>3.9765万/平</t>
+  </si>
+  <si>
+    <t>80.22㎡</t>
+  </si>
+  <si>
+    <t>中/27</t>
+  </si>
+  <si>
+    <t>主卧太小</t>
+  </si>
+  <si>
+    <t>33栋</t>
+  </si>
+  <si>
+    <t>保利物业</t>
+  </si>
+  <si>
+    <t>上海保利建霖房地产有限公司</t>
+  </si>
+  <si>
+    <t>2024.09.30</t>
+  </si>
+  <si>
+    <t>425万</t>
+  </si>
+  <si>
+    <t>4.8104万/平</t>
+  </si>
+  <si>
+    <t>88.35㎡</t>
+  </si>
+  <si>
+    <t>好日子大家园A区</t>
+  </si>
+  <si>
+    <t>2024.09.05</t>
+  </si>
+  <si>
+    <t>295万</t>
+  </si>
+  <si>
+    <t>3.8724万/平</t>
+  </si>
+  <si>
+    <t>76.18㎡</t>
+  </si>
+  <si>
+    <t>动迁安置房</t>
+  </si>
+  <si>
+    <t>0.8元/平/月</t>
+  </si>
+  <si>
+    <t>99栋</t>
+  </si>
+  <si>
+    <t>菊泉物业</t>
+  </si>
+  <si>
+    <t>上海顾村房地产开发有限公司</t>
   </si>
 </sst>
 </file>
@@ -297,12 +498,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,16 +513,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -339,10 +538,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,16 +554,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,10 +600,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,25 +645,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,42 +661,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +676,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,169 +700,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,30 +873,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,31 +895,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +924,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -761,179 +949,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,13 +1237,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>10160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>747395</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>574675</xdr:rowOff>
@@ -1027,7 +1263,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5406390" y="1031240"/>
+          <a:off x="6760845" y="1031240"/>
           <a:ext cx="737235" cy="559435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1039,13 +1275,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>775335</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>584835</xdr:rowOff>
@@ -1065,7 +1301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5407660" y="393700"/>
+          <a:off x="6762115" y="393700"/>
           <a:ext cx="763905" cy="572135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1077,13 +1313,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8890</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>814705</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>627380</xdr:rowOff>
@@ -1103,7 +1339,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5405120" y="1675130"/>
+          <a:off x="6759575" y="1675130"/>
           <a:ext cx="805815" cy="603250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1115,13 +1351,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>789305</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>595630</xdr:rowOff>
@@ -1141,7 +1377,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5407660" y="2298700"/>
+          <a:off x="6762115" y="2298700"/>
           <a:ext cx="777875" cy="582930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1153,13 +1389,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>589915</xdr:rowOff>
@@ -1179,7 +1415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5407025" y="2933700"/>
+          <a:off x="6761480" y="2933700"/>
           <a:ext cx="770255" cy="577215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1191,13 +1427,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>815975</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>615950</xdr:rowOff>
@@ -1217,8 +1453,236 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5407660" y="3568700"/>
+          <a:off x="6762115" y="3568700"/>
           <a:ext cx="804545" cy="603250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>614680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="新天地荻泾花园"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6760210" y="4203700"/>
+          <a:ext cx="803275" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="文宝苑"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="5473700"/>
+          <a:ext cx="775335" cy="581660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>788670</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>595630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="中铁青秀城西区"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="4838700"/>
+          <a:ext cx="776605" cy="582930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>949960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>541655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="保利叶上海（一期）_1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="6108700"/>
+          <a:ext cx="937895" cy="528955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>808990</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>610235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="保利叶上海（一期）_2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="6743700"/>
+          <a:ext cx="796925" cy="597535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>795655</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>600710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="好日子大家园A区"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="7378700"/>
+          <a:ext cx="783590" cy="588010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1488,503 +1952,1022 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="21.6346153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4519230769231" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6634615384615" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4903846153846" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4711538461538" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.0192307692308" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4519230769231" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7788461538462" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.2211538461538" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5288461538462" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.0480769230769" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.4038461538462" style="1" customWidth="1"/>
-    <col min="13" max="13" width="36.8557692307692" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1730769230769" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.2884615384615" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.2115384615385" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6923076923077" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.3365384615385" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1730769230769" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6538461538462" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.2596153846154" style="1" customWidth="1"/>
-    <col min="22" max="23" width="16.3365384615385" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7980769230769" style="1" customWidth="1"/>
-    <col min="25" max="25" width="38.3076923076923" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.23076923076923" style="1"/>
+    <col min="1" max="1" width="23.5576923076923" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.4519230769231" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.9423076923077" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.3076923076923" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.4903846153846" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.4711538461538" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.8942307692308" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.4519230769231" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7788461538462" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.2211538461538" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5288461538462" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.1057692307692" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.4038461538462" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.4615384615385" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.1730769230769" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.2884615384615" style="3" customWidth="1"/>
+    <col min="17" max="17" width="24.8365384615385" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.6923076923077" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.0576923076923" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.6538461538462" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.9038461538462" style="3" customWidth="1"/>
+    <col min="22" max="23" width="16.3365384615385" style="3" customWidth="1"/>
+    <col min="24" max="24" width="13.9423076923077" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.3942307692308" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.6923076923077" style="3" customWidth="1"/>
+    <col min="27" max="27" width="12.3365384615385" style="3" customWidth="1"/>
+    <col min="28" max="28" width="12.1730769230769" style="4" customWidth="1"/>
+    <col min="29" max="29" width="50.1634615384615" style="3" customWidth="1"/>
+    <col min="30" max="30" width="38.3076923076923" style="3" customWidth="1"/>
+    <col min="31" max="31" width="20.0192307692308" style="5" customWidth="1"/>
+    <col min="32" max="32" width="17.9519230769231" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16.1826923076923" style="3" customWidth="1"/>
+    <col min="34" max="34" width="16.8269230769231" style="3" customWidth="1"/>
+    <col min="35" max="35" width="22.1057692307692" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="9.23076923076923" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" ht="50" customHeight="1" spans="1:25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="4">
-        <v>45430</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
+    <row r="2" ht="50" customHeight="1" spans="1:30">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2">
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="7">
         <v>2010</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="7">
         <v>70</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1171</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="7">
+        <v>120</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:30">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:30">
+      <c r="A4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2010</v>
+      </c>
+      <c r="P4" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7">
+        <v>925</v>
+      </c>
+      <c r="U4" s="7">
+        <v>97</v>
+      </c>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="AA4" s="10">
         <v>0.35</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AB4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:30">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
     </row>
-    <row r="3" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="6" ht="50" customHeight="1" spans="1:30">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:30">
+      <c r="A7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2008</v>
+      </c>
+      <c r="P7" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
+        <v>744</v>
+      </c>
+      <c r="U7" s="7">
+        <v>300</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1" spans="1:30">
+      <c r="A8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="L8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="N8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2010</v>
+      </c>
+      <c r="P8" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1963</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1267</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" s="7">
+        <v>200</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" ht="50" customHeight="1" spans="1:30">
+      <c r="A9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="7">
+        <v>2016</v>
+      </c>
+      <c r="P9" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="R9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7">
+        <v>1073</v>
+      </c>
+      <c r="U9" s="7">
+        <v>500</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD9" s="7"/>
     </row>
-    <row r="4" ht="50" customHeight="1" spans="1:25">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="2">
+    <row r="10" ht="50" customHeight="1" spans="1:30">
+      <c r="A10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2008</v>
+      </c>
+      <c r="P10" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1961</v>
+      </c>
+      <c r="U10" s="4">
+        <v>384</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="1:30">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="7">
         <v>2010</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P11" s="7">
         <v>70</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
+        <v>2425</v>
+      </c>
+      <c r="U11" s="4">
+        <v>203</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1" spans="2:30">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13" ht="50" customHeight="1" spans="1:30">
+      <c r="A13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>64</v>
+      <c r="I13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2005</v>
+      </c>
+      <c r="P13" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1388</v>
+      </c>
+      <c r="U13" s="4">
+        <v>300</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="1:25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" ht="50" customHeight="1" spans="1:25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="1:25">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2008</v>
-      </c>
-      <c r="O7" s="2">
-        <v>70</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" ht="50" customHeight="1" spans="1:25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" ht="50" customHeight="1"/>
-    <row r="10" ht="50" customHeight="1"/>
-    <row r="11" ht="50" customHeight="1"/>
-    <row r="12" ht="50" customHeight="1"/>
-    <row r="13" ht="50" customHeight="1"/>
     <row r="14" ht="50" customHeight="1"/>
     <row r="15" ht="50" customHeight="1"/>
     <row r="16" ht="50" customHeight="1"/>
@@ -1994,10 +2977,57 @@
     <row r="20" ht="50" customHeight="1"/>
     <row r="21" ht="50" customHeight="1"/>
     <row r="22" ht="50" customHeight="1"/>
+    <row r="23" ht="50" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="48">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AD11:AD12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
